--- a/biology/Histoire de la zoologie et de la botanique/Alfred_William_Bennett/Alfred_William_Bennett.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alfred_William_Bennett/Alfred_William_Bennett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred William Bennett, né le 24 juin 1833 à Clapham et mort le 23 janvier 1902 à Londres, est un botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de William et d’Elizabeth Bennett. Il obtient un Bachelor of Arts avec mention spéciale en chimie et en botanique à l’université de Londres en 1853, son Master of Arts en 1855 et son Bachelor of Sciences en 1858. Il se marie la même année avec Katherine Richardson.
 Il s’installe comme libraire de 1858 à 1868. Il devient le tuteur de la famille de Gurney Barclay en 1868 et commence à donner des cours de botanique au Bedford College ainsi qu’à l’hôpital St-Thomas. Il est l’assistant de Sir Joseph Norman Lockyer (1836-1920) de 1870 à 1874.
